--- a/sofiback/public/pres.xlsx
+++ b/sofiback/public/pres.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sofi\sofiback\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24195" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -111,6 +111,9 @@
   <si>
     <t>fecha</t>
   </si>
+  <si>
+    <t>CNTAD</t>
+  </si>
 </sst>
 </file>
 
@@ -656,6 +659,12 @@
     <xf numFmtId="16" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -669,12 +678,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1022,7 +1025,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1036,7 @@
     <col min="4" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="9" width="9.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="45.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
@@ -1064,9 +1067,9 @@
       <c r="B3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="4"/>
       <c r="G3" s="38" t="s">
         <v>13</v>
@@ -1091,20 +1094,23 @@
       <c r="E4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="42" t="s">
         <v>2</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1113,11 +1119,12 @@
       <c r="C5" s="55"/>
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="48"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -1132,6 +1139,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:21" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -1147,6 +1155,7 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1162,6 +1171,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
       <c r="U8" s="3">
         <v>3</v>
       </c>
@@ -1180,6 +1190,7 @@
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1195,6 +1206,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:21" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -1210,6 +1222,7 @@
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1225,6 +1238,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:21" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -1240,6 +1254,7 @@
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1255,6 +1270,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:21" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -1270,6 +1286,7 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
       <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1285,8 +1302,9 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1300,8 +1318,9 @@
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1315,8 +1334,9 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1330,8 +1350,9 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1345,14 +1366,15 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="34">
         <f>SUM(E6:E20)</f>
         <v>0</v>
@@ -1371,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1383,9 +1405,9 @@
     <protectedRange sqref="J3" name="Rango2"/>
     <protectedRange sqref="C3:F3 H3" name="Rango1"/>
     <protectedRange sqref="B6:D20" name="Rango1_2"/>
-    <protectedRange sqref="E6:J20" name="Rango2_2"/>
+    <protectedRange sqref="E6:K20" name="Rango2_2"/>
   </protectedRanges>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -1394,6 +1416,7 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="I4:I5"/>

--- a/sofiback/public/pres.xlsx
+++ b/sofiback/public/pres.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$K$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$L$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>No.</t>
   </si>
@@ -114,6 +114,9 @@
   <si>
     <t>CNTAD</t>
   </si>
+  <si>
+    <t>FACT</t>
+  </si>
 </sst>
 </file>
 
@@ -659,6 +662,39 @@
     <xf numFmtId="16" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,39 +708,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,24 +1039,24 @@
     <col min="4" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="9" width="9.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="45.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="11" max="12" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1063,13 +1066,13 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="4"/>
       <c r="G3" s="38" t="s">
         <v>13</v>
@@ -1078,55 +1081,59 @@
       <c r="I3" s="3"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="53" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -1140,8 +1147,9 @@
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:21" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:22" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>+A6+1</f>
         <v>2</v>
@@ -1156,8 +1164,9 @@
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" ref="A8:A20" si="0">+A7+1</f>
         <v>3</v>
@@ -1172,11 +1181,12 @@
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="U8" s="3">
+      <c r="L8" s="8"/>
+      <c r="V8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1191,8 +1201,9 @@
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1207,8 +1218,9 @@
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:21" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1223,8 +1235,9 @@
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1239,8 +1252,9 @@
       <c r="I12" s="7"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-    </row>
-    <row r="13" spans="1:21" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:22" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1255,8 +1269,9 @@
       <c r="I13" s="31"/>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1271,8 +1286,9 @@
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:21" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1287,8 +1303,9 @@
       <c r="I15" s="31"/>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:21" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1303,8 +1320,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1319,8 +1337,9 @@
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1335,8 +1354,9 @@
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1351,8 +1371,9 @@
       <c r="I19" s="31"/>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1367,14 +1388,15 @@
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="34">
         <f>SUM(E6:E20)</f>
         <v>0</v>
@@ -1393,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1405,9 +1427,16 @@
     <protectedRange sqref="J3" name="Rango2"/>
     <protectedRange sqref="C3:F3 H3" name="Rango1"/>
     <protectedRange sqref="B6:D20" name="Rango1_2"/>
-    <protectedRange sqref="E6:K20" name="Rango2_2"/>
+    <protectedRange sqref="E6:L20" name="Rango2_2"/>
   </protectedRanges>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -1416,17 +1445,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.55118110236220474" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup scale="106" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="11" max="32" man="1"/>
+    <brk id="12" max="32" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/sofiback/public/pres.xlsx
+++ b/sofiback/public/pres.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sofi\sofiback\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC3412-1D2A-4EDE-9553-B9C1DA411B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24195" windowHeight="8085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$L$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$N$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>No.</t>
   </si>
@@ -117,11 +109,17 @@
   <si>
     <t>FACT</t>
   </si>
+  <si>
+    <t>HORARIO</t>
+  </si>
+  <si>
+    <t>COMENTARIO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
   </numFmts>
@@ -572,16 +570,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,25 +588,25 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,16 +615,16 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,39 +660,6 @@
     <xf numFmtId="16" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,12 +673,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1024,11 +1022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,23 +1038,25 @@
     <col min="8" max="9" width="9.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="45.7109375" customWidth="1"/>
     <col min="11" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:24" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1066,13 +1066,13 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="4"/>
       <c r="G3" s="38" t="s">
         <v>13</v>
@@ -1081,59 +1081,67 @@
       <c r="I3" s="3"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:24" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-    </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="1:24" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -1148,8 +1156,10 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:22" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:24" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>+A6+1</f>
         <v>2</v>
@@ -1165,8 +1175,10 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+    </row>
+    <row r="8" spans="1:24" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" ref="A8:A20" si="0">+A7+1</f>
         <v>3</v>
@@ -1182,11 +1194,13 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="V8" s="3">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="X8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1202,8 +1216,10 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+    </row>
+    <row r="10" spans="1:24" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1219,8 +1235,10 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:24" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1236,8 +1254,10 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+    </row>
+    <row r="12" spans="1:24" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1253,8 +1273,10 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:22" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+    </row>
+    <row r="13" spans="1:24" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1270,8 +1292,10 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+    </row>
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1287,8 +1311,10 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:22" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1304,8 +1330,10 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+    </row>
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1321,8 +1349,10 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1338,8 +1368,10 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1355,8 +1387,10 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1372,8 +1406,10 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1389,14 +1425,16 @@
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:14" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="34">
         <f>SUM(E6:E20)</f>
         <v>0</v>
@@ -1415,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1427,16 +1465,9 @@
     <protectedRange sqref="J3" name="Rango2"/>
     <protectedRange sqref="C3:F3 H3" name="Rango1"/>
     <protectedRange sqref="B6:D20" name="Rango1_2"/>
-    <protectedRange sqref="E6:L20" name="Rango2_2"/>
+    <protectedRange sqref="E6:N20" name="Rango2_2"/>
   </protectedRanges>
-  <mergeCells count="15">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="F4:F5"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -1445,11 +1476,20 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.55118110236220474" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup scale="106" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="32" man="1"/>
+    <brk id="14" max="32" man="1"/>
   </colBreaks>
 </worksheet>
 </file>